--- a/TestFiles/poria/words/word_3.xlsx
+++ b/TestFiles/poria/words/word_3.xlsx
@@ -385,10 +385,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.4202984999999995</v>
+        <v>0.4202985000000012</v>
       </c>
       <c r="B2">
-        <v>0.5195814999999993</v>
+        <v>0.519581500000001</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -396,10 +396,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.7595629000000006</v>
+        <v>0.7595629000000024</v>
       </c>
       <c r="B3">
-        <v>0.8634284000000019</v>
+        <v>0.8634284000000036</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -407,10 +407,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1.127589200000001</v>
+        <v>1.127589200000003</v>
       </c>
       <c r="B4">
-        <v>1.239945700000002</v>
+        <v>1.239945700000003</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -418,10 +418,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1.435499900000002</v>
+        <v>1.435499900000003</v>
       </c>
       <c r="B5">
-        <v>1.5395354</v>
+        <v>1.539535400000002</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>

--- a/TestFiles/poria/words/word_3.xlsx
+++ b/TestFiles/poria/words/word_3.xlsx
@@ -385,10 +385,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.4202985000000012</v>
+        <v>0.4202984999999995</v>
       </c>
       <c r="B2">
-        <v>0.519581500000001</v>
+        <v>0.5195814999999993</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -396,10 +396,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.7595629000000024</v>
+        <v>0.7595629000000006</v>
       </c>
       <c r="B3">
-        <v>0.8634284000000036</v>
+        <v>0.8634284000000019</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -407,10 +407,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1.127589200000003</v>
+        <v>1.127589200000001</v>
       </c>
       <c r="B4">
-        <v>1.239945700000003</v>
+        <v>1.239945700000002</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -418,10 +418,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1.435499900000003</v>
+        <v>1.435499900000002</v>
       </c>
       <c r="B5">
-        <v>1.539535400000002</v>
+        <v>1.5395354</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
